--- a/account.xlsx
+++ b/account.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GitHub\clock_on\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF674C13-8156-4792-8418-2F4C57D0AB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79014ED-C9A7-43A2-9B11-8FCF8FC5E40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>学号（包括这行）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码（包括这行）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_id（包括这行)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36,6 +49,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -60,11 +81,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -343,19 +365,26 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
@@ -390,6 +419,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>